--- a/otto_products_report.xlsx
+++ b/otto_products_report.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,19 @@
     <col width="70" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="40" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="30" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -464,7 +476,67 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Supplier Information</t>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Adress</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ZIP</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tel</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturer Adress</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ZIP</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Tel</t>
         </is>
       </c>
     </row>
@@ -496,9 +568,57 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Apple Distribution International Ltd. Hollyhill Industrial Estate, T23 YK84 Cork, IE contactus.de@euro.apple.com Herstellerinformationen Apple Inc. Apple Park Way 1, CA 95014 Cupertino, US</t>
-        </is>
-      </c>
+          <t>Apple Distribution International Ltd.</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Hollyhill Industrial Estate</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>T23 YK84</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Cork</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>contactus.de@euro.apple.com</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Apple Inc. Apple Park Way 1</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>95014</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Cupertino</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -528,9 +648,57 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Apple Distribution International Ltd. Hollyhill Industrial Estate, T23 YK84 Cork, IE contactus.de@euro.apple.com Herstellerinformationen Apple Inc. Apple Park Way 1, CA 95014 Cupertino, US</t>
-        </is>
-      </c>
+          <t>Apple Distribution International Ltd.</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Hollyhill Industrial Estate</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>T23 YK84</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Cork</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>contactus.de@euro.apple.com</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>Apple Inc. Apple Park Way 1</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>95014</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>Cupertino</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -543,6 +711,18 @@
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -572,9 +752,57 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Apple Distribution International Ltd. Hollyhill Industrial Estate, T23 YK84 Cork, IE contactus.de@euro.apple.com Herstellerinformationen Apple Inc. Apple Park Way 1, CA 95014 Cupertino, US</t>
-        </is>
-      </c>
+          <t>Apple Distribution International Ltd.</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Hollyhill Industrial Estate</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>T23 YK84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Cork</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>contactus.de@euro.apple.com</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>Apple Inc. Apple Park Way 1</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>95014</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>Cupertino</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -604,9 +832,57 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Apple Distribution International Ltd. Hollyhill Industrial Estate, T23 YK84 Cork, IE contactus.de@euro.apple.com Herstellerinformationen Apple Inc. Apple Park Way 1, CA 95014 Cupertino, US</t>
-        </is>
-      </c>
+          <t>Apple Distribution International Ltd.</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Hollyhill Industrial Estate</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>T23 YK84</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Cork</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>contactus.de@euro.apple.com</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>Apple Inc. Apple Park Way 1</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>95014</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>Cupertino</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -616,7 +892,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>https://www.otto.de/p/google-google-pixel-9-256-gb-smartphone-15-49-cm-6-1-zoll-256-gb-speicherplatz-50-mp-kamera-C1881124907/</t>
+          <t>https://www.otto.de/p/google-pixel-9a-128-gb-smartphone-16-cm-6-3-zoll-128-gb-speicherplatz-48-mp-kamera-C1962122385/</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -636,9 +912,41 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Google Ireland Limited Google Building Gordon House, Barrow St, Grand Canal Dock, D04 V4X7 Dublin +353 1 543 1000 support-deutschland@google.com</t>
-        </is>
-      </c>
+          <t>Google Ireland Limited</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Gordon Housem Barrow Street</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16467</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Dublin 4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>info@google.com</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -668,9 +976,37 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Google Commerce Limited Sir John Rogersons Quay 70, D02 R296 Dublin, IE</t>
-        </is>
-      </c>
+          <t>Google Commerce Limited</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Sir John Rogersons Quay 70</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>D02 R296</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -683,6 +1019,18 @@
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -690,31 +1038,23 @@
           <t>Apple iPhone 14 Pro Max 1TB silber</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>https://www.otto.de/p/apple-iphone-14-plus-smartphone-17-cm-6-7-zoll-128-gb-speicherplatz-12-mp-kamera-1676826906/</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Not found</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Not found</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Not found</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Apple Distribution International Ltd. Hollyhill Industrial Estate, T23 YK84 Cork, IE contactus.de@euro.apple.com Herstellerinformationen Apple Inc. Apple Park Way 1, CA 95014 Cupertino, US</t>
-        </is>
-      </c>
+      <c r="B10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -727,6 +1067,78 @@
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy Z Fold7 256GB Dual-SIM blue shadow</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>https://www.otto.de/p/samsung-galaxy-z-fold7-smartphone-20-31-cm-8-zoll-512-gb-speicherplatz-200-mp-kamera-2005007619/</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>https://d.otto.de/files/79486bbd-8f0b-5447-8bac-cbf0164e8978.pdf</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>https://i.otto.de/i/otto/c5a4bdd4-858b-5e8a-b07f-6291a9b7a7e5</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Samsung Electronics Co. Ltd</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>PO BOX</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12987</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr"/>
+      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="R12" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
